--- a/ExcelJoin/files/xlsx/class1.xlsx
+++ b/ExcelJoin/files/xlsx/class1.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t>小明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +68,10 @@
   </si>
   <si>
     <t>英语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高一（1）班学生统计表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -110,8 +115,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -395,7 +403,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -455,7 +463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66C6355-05DE-473E-8076-1C8D0E7F800D}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -521,4 +529,75 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CB41B1C-3E46-4155-A4F6-26B146C9B8C0}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>